--- a/Investment Analysis/Plots_wind_cost_analysis.xlsx
+++ b/Investment Analysis/Plots_wind_cost_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1985707\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s1985707_ed_ac_uk/Documents/University/PhD/Courses &amp; Competitions/2024-01 MOPTA Competition/Final_Submission/HYDROGENius-EdinbORgh_MOPTA24/Investment Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F72CB4-4B80-4F08-A8C0-B884AD7C2B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B8F72CB4-4B80-4F08-A8C0-B884AD7C2B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B5CECD1-A74C-450D-BD24-ED743E9C8D6C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{64675ECD-D5CE-4F76-8B23-7B9E855A8767}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="12156" xr2:uid="{64675ECD-D5CE-4F76-8B23-7B9E855A8767}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sol_h2_tank</c:v>
+                  <c:v>Sol_h2_intraday</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -567,7 +567,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sol_h2_intraday</c:v>
+                  <c:v>Sol_h2_tank</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4257,7 +4257,7 @@
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:H36"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4300,10 +4300,10 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
       </c>
       <c r="P1" t="s">
         <v>14</v>
@@ -5897,7 +5897,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="C18" sqref="C18:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5913,10 +5913,10 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
